--- a/VLOOKUP TO GET FULL RECORDS USING COLUMN_COLUMNS.xlsx
+++ b/VLOOKUP TO GET FULL RECORDS USING COLUMN_COLUMNS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\MIS\Lookup Functions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6B1F6832-6EEE-4DC0-9ED6-F97320EB785E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48735D66-9718-4B1D-BB41-8D198FA0AC58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{689151D9-85A6-44D9-B992-253FE74A0E4E}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="42">
   <si>
     <t>ID</t>
   </si>
@@ -753,10 +753,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7ACDAC93-1189-4E35-9F4E-CB2FFA0F34E7}">
-  <dimension ref="A1:E24"/>
+  <dimension ref="A1:F27"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -984,7 +984,7 @@
       <c r="D16" s="8"/>
       <c r="E16" s="6"/>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
         <v>0</v>
       </c>
@@ -1001,7 +1001,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="4" t="s">
         <v>30</v>
       </c>
@@ -1022,13 +1022,13 @@
         <v>253-452-9723</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B19" s="12" t="str">
         <f ca="1">_xlfn.FORMULATEXT(B18)</f>
         <v>=VLOOKUP($A$18,$A$3:$E$9,COLUMN(B1),0)</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="4" t="s">
         <v>30</v>
       </c>
@@ -1049,39 +1049,58 @@
         <v>253-452-9723</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B21" s="13" t="str">
         <f ca="1">_xlfn.FORMULATEXT(B20)</f>
         <v>=VLOOKUP($A$20,$A$3:$E$9,COLUMNS($F$8:G8),0)</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="14"/>
-      <c r="B22" s="14"/>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A23" s="17" t="s">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A22" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B22" s="7" t="str">
+        <f>VLOOKUP($A$22,$A$3:$E$9,COLUMNS($B$11:B11)+1,0)</f>
+        <v>Srivastava</v>
+      </c>
+      <c r="C22" s="4" t="str">
+        <f>VLOOKUP($A$22,$A$3:$E$9,COLUMNS($B$11:C11)+1,0)</f>
+        <v>Swapnil</v>
+      </c>
+      <c r="D22" s="4" t="str">
+        <f>VLOOKUP($A$22,$A$3:$E$9,COLUMNS($B$11:D11)+1,0)</f>
+        <v>SrivastavaS@innozant.com</v>
+      </c>
+      <c r="E22" s="4" t="str">
+        <f>VLOOKUP($A$22,$A$3:$E$9,COLUMNS($B$11:E11)+1,0)</f>
+        <v>253-452-9723</v>
+      </c>
+      <c r="F22" s="14"/>
+    </row>
+    <row r="25" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A26" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="B23" s="18">
+      <c r="B26" s="18">
         <f>COLUMN(B3)</f>
         <v>2</v>
       </c>
-      <c r="C23" s="15" t="str">
-        <f ca="1">_xlfn.FORMULATEXT(B23)</f>
+      <c r="C26" s="15" t="str">
+        <f ca="1">_xlfn.FORMULATEXT(B26)</f>
         <v>=COLUMN(B3)</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="19" t="s">
+    <row r="27" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="B24" s="20">
+      <c r="B27" s="20">
         <f>COLUMNS(A3:E9)</f>
         <v>5</v>
       </c>
-      <c r="C24" s="16" t="str">
-        <f ca="1">_xlfn.FORMULATEXT(B24)</f>
+      <c r="C27" s="16" t="str">
+        <f ca="1">_xlfn.FORMULATEXT(B27)</f>
         <v>=COLUMNS(A3:E9)</v>
       </c>
     </row>
